--- a/doc/5. 내항 여객선 항로 통항선박 데이터.xlsx
+++ b/doc/5. 내항 여객선 항로 통항선박 데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\빅데이터실\해양교통빅데이터실\0.빅데이터실\해양수산 빅데이터 플랫폼 및 센터 구축 사업\운항데이터\3. 내항 여객선 항로 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGY\Desktop\DEVELOP\GIT\blueOcean\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>-</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -161,18 +161,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>주요통항선박 순번</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주요통항선박 유형</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>항로도 사진 파일명</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>부산-제주</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -181,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SAIL_VSL_PHOTO_NM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>부산항</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -412,6 +396,71 @@
   <si>
     <t>전북</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAIL_VSL_PHOTO_NM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAIL_VSL_KND</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">주요통항선박 순번
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 엑셀 데이터 구조 이상함, 변경 필요</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">주요통항선박 유형
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 엑셀 데이터 구조 이상함, 변경 필요</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">항로도 사진 파일명
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>컬럼명 불일치</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,7 +470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -531,8 +580,55 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +651,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -582,7 +683,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,8 +701,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,8 +802,21 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="나쁨" xfId="7" builtinId="27"/>
     <cellStyle name="나쁨 2" xfId="5"/>
     <cellStyle name="쉼표 [0] 2" xfId="2"/>
     <cellStyle name="좋음 2" xfId="6"/>
@@ -990,7 +1107,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1019,29 +1136,29 @@
       <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="16" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1052,59 +1169,59 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="13">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
       <c r="K3" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
@@ -1123,33 +1240,33 @@
     </row>
     <row r="4" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G4" s="12">
         <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -1168,33 +1285,33 @@
     </row>
     <row r="5" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="14">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" s="12">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G5" s="12">
         <v>2</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
@@ -1213,37 +1330,37 @@
     </row>
     <row r="6" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C6" s="14">
         <v>1</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E6" s="14">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" s="12">
         <v>2</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I6" s="12">
         <v>3</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
@@ -1262,33 +1379,33 @@
     </row>
     <row r="7" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="14">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="14">
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="6"/>
       <c r="K7" s="10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L7" s="17"/>
       <c r="M7" s="17"/>
@@ -1307,37 +1424,37 @@
     </row>
     <row r="8" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E8" s="14">
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G8" s="12">
         <v>2</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I8" s="12">
         <v>3</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="17"/>
@@ -1356,22 +1473,22 @@
     </row>
     <row r="9" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="E9" s="14">
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G9" s="18">
         <v>2</v>
@@ -1382,7 +1499,7 @@
       <c r="I9" s="18"/>
       <c r="J9" s="6"/>
       <c r="K9" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L9" s="17"/>
       <c r="M9" s="17"/>
@@ -1401,37 +1518,37 @@
     </row>
     <row r="10" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C10" s="14">
         <v>1</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E10" s="14">
         <v>1</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="18">
         <v>2</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I10" s="12">
         <v>3</v>
       </c>
       <c r="J10" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
@@ -1450,37 +1567,37 @@
     </row>
     <row r="11" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="14">
         <v>1</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E11" s="14">
         <v>1</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G11" s="18">
         <v>2</v>
       </c>
       <c r="H11" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I11" s="18">
         <v>3</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="L11" s="17"/>
       <c r="M11" s="17"/>
@@ -1499,34 +1616,34 @@
     </row>
     <row r="12" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="14">
         <v>1</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E12" s="14">
         <v>1</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G12" s="18">
         <v>2</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I12" s="12">
         <v>3</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K12" s="14"/>
       <c r="L12" s="17"/>
@@ -1546,37 +1663,37 @@
     </row>
     <row r="13" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C13" s="14">
         <v>1</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E13" s="14">
         <v>1</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G13" s="18">
         <v>2</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12">
         <v>3</v>
       </c>
       <c r="J13" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>
@@ -1595,37 +1712,37 @@
     </row>
     <row r="14" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C14" s="12">
         <v>2</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G14" s="18">
         <v>2</v>
       </c>
       <c r="H14" s="28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I14" s="12">
         <v>3</v>
       </c>
       <c r="J14" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L14" s="17"/>
       <c r="M14" s="17"/>
@@ -1644,29 +1761,29 @@
     </row>
     <row r="15" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C15" s="12">
         <v>1</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" s="14">
         <v>1</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="29"/>
       <c r="I15" s="12"/>
       <c r="J15" s="29"/>
       <c r="K15" s="14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L15" s="17"/>
       <c r="M15" s="17"/>
@@ -1685,29 +1802,29 @@
     </row>
     <row r="16" spans="1:25" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C16" s="14">
         <v>1</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E16" s="14">
         <v>1</v>
       </c>
       <c r="F16" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G16" s="18"/>
       <c r="H16" s="28"/>
       <c r="I16" s="12"/>
       <c r="J16" s="28"/>
       <c r="K16" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
@@ -1726,29 +1843,29 @@
     </row>
     <row r="17" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="14">
-        <v>2</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>47</v>
-      </c>
       <c r="E17" s="14">
         <v>1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G17" s="18"/>
       <c r="H17" s="29"/>
       <c r="I17" s="12"/>
       <c r="J17" s="29"/>
       <c r="K17" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
@@ -1767,37 +1884,37 @@
     </row>
     <row r="18" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="14">
-        <v>1</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" s="14">
         <v>1</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G18" s="18">
         <v>2</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I18" s="12">
         <v>3</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -1816,37 +1933,37 @@
     </row>
     <row r="19" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="14">
         <v>2</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E19" s="14">
         <v>1</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G19" s="18">
         <v>2</v>
       </c>
       <c r="H19" s="29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I19" s="12">
         <v>3</v>
       </c>
       <c r="J19" s="29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="L19" s="17"/>
       <c r="M19" s="17"/>
@@ -1865,28 +1982,28 @@
     </row>
     <row r="20" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="14">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="14">
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G20" s="18">
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
@@ -1908,28 +2025,28 @@
     </row>
     <row r="21" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="12">
         <v>2</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" s="14">
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G21" s="18">
         <v>2</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
@@ -1951,28 +2068,28 @@
     </row>
     <row r="22" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12">
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E22" s="14">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G22" s="18">
         <v>2</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
@@ -1994,28 +2111,28 @@
     </row>
     <row r="23" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C23" s="14">
         <v>2</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E23" s="14">
         <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G23" s="18">
         <v>2</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -2037,28 +2154,28 @@
     </row>
     <row r="24" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C24" s="14">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E24" s="14">
         <v>1</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G24" s="18">
         <v>2</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -2080,28 +2197,28 @@
     </row>
     <row r="25" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C25" s="14">
         <v>2</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E25" s="14">
         <v>1</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G25" s="18">
         <v>2</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2123,34 +2240,34 @@
     </row>
     <row r="26" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C26" s="14">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E26" s="14">
         <v>1</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G26" s="18">
         <v>2</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I26" s="18">
         <v>3</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="8"/>
@@ -2170,28 +2287,28 @@
     </row>
     <row r="27" spans="1:29" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C27" s="14">
         <v>2</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E27" s="14">
         <v>1</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G27" s="18">
         <v>2</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -2639,6 +2756,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>